--- a/itens.xlsx
+++ b/itens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b645588e0a720676/Documentos/Sistema_Compras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_2B59AE1F138D2DFF641311114B1510344D07F340" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B5EE663-7D14-42D1-8DD9-F3F42C730D52}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_2B59AE1F138D2DFF641311114B1510344D07F340" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C72F4FEC-01E7-4231-BD8C-19FCB8367508}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Descrição</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>Axial</t>
+  </si>
+  <si>
+    <t>Pastilha</t>
+  </si>
+  <si>
+    <t>Syl 1381</t>
+  </si>
+  <si>
+    <t>Syl</t>
+  </si>
+  <si>
+    <t>R$106.50</t>
   </si>
 </sst>
 </file>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,6 +539,29 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
